--- a/data/trans_dic/P41E_2023_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P41E_2023_R-Dificultad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.2311163038501709</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2214123631384704</v>
+        <v>0.2214123631384705</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1634038596414424</v>
+        <v>0.165114420756698</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1911950017266035</v>
+        <v>0.1904461960893426</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1909826653487174</v>
+        <v>0.1881964636685754</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.266321570572426</v>
+        <v>0.2671050499565286</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2790743635599736</v>
+        <v>0.275589773209922</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2577049076580272</v>
+        <v>0.2569938351396731</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1544375227371117</v>
+        <v>0.1585631274623428</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1418628242581605</v>
+        <v>0.1430126631944514</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1583166632147247</v>
+        <v>0.1585848000655362</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2253790665632385</v>
+        <v>0.228341784825363</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1988700638246567</v>
+        <v>0.198563186945468</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2040647492498312</v>
+        <v>0.2040407862472999</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06461283320060698</v>
+        <v>0.06449242121305671</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07849455684657416</v>
+        <v>0.07921332912552993</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07770195596098708</v>
+        <v>0.07740798769516459</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1048339953323991</v>
+        <v>0.1088058438785496</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1226067314587241</v>
+        <v>0.1231834612611549</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1084230461833807</v>
+        <v>0.109251937491496</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02065367643692285</v>
+        <v>0.02137654551249024</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02470529851949382</v>
+        <v>0.02390663552427109</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02664014112093995</v>
+        <v>0.02600740173926603</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05065751769066509</v>
+        <v>0.05063168140486154</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05640318055629797</v>
+        <v>0.05587995954662668</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04787994218636855</v>
+        <v>0.04862243259581452</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09964697798053644</v>
+        <v>0.1004924119923046</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1100678795525002</v>
+        <v>0.1103044706838931</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1083611110020129</v>
+        <v>0.1090715866301733</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1280666743696297</v>
+        <v>0.1281278744228038</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1362466891309231</v>
+        <v>0.1354920920121009</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1279165816480037</v>
+        <v>0.1271108447463787</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>37117</v>
+        <v>37505</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>46701</v>
+        <v>46518</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>90029</v>
+        <v>88716</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>60494</v>
+        <v>60672</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>68166</v>
+        <v>67314</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>121482</v>
+        <v>121147</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>64361</v>
+        <v>66080</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>63154</v>
+        <v>63666</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>136456</v>
+        <v>136687</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>93926</v>
+        <v>95160</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>88532</v>
+        <v>88395</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>175887</v>
+        <v>175867</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>33068</v>
+        <v>33007</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>38988</v>
+        <v>39345</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>78361</v>
+        <v>78065</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>53653</v>
+        <v>55686</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>60898</v>
+        <v>61185</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>109343</v>
+        <v>110179</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10302</v>
+        <v>10662</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10320</v>
+        <v>9986</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>24415</v>
+        <v>23836</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25267</v>
+        <v>25254</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>23560</v>
+        <v>23341</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>43882</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>164863</v>
+        <v>166261</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>176530</v>
+        <v>176910</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>353073</v>
+        <v>355388</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>211882</v>
+        <v>211983</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>218517</v>
+        <v>217307</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>416791</v>
+        <v>414165</v>
       </c>
     </row>
     <row r="24">
